--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H2">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.13878289048683</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N2">
-        <v>1.13878289048683</v>
+        <v>0.153373</v>
       </c>
       <c r="O2">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="P2">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="Q2">
-        <v>17.43795643326048</v>
+        <v>1.171573641140222</v>
       </c>
       <c r="R2">
-        <v>17.43795643326048</v>
+        <v>10.544162770262</v>
       </c>
       <c r="S2">
-        <v>0.0144009618360839</v>
+        <v>0.0007441214330745338</v>
       </c>
       <c r="T2">
-        <v>0.0144009618360839</v>
+        <v>0.0007441214330745341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H3">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I3">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J3">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.96705803484053</v>
+        <v>1.155658333333333</v>
       </c>
       <c r="N3">
-        <v>1.96705803484053</v>
+        <v>3.466975</v>
       </c>
       <c r="O3">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="P3">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="Q3">
-        <v>30.12116936405696</v>
+        <v>26.48325666507223</v>
       </c>
       <c r="R3">
-        <v>30.12116936405696</v>
+        <v>238.34930998565</v>
       </c>
       <c r="S3">
-        <v>0.02487526632665743</v>
+        <v>0.01682075988233641</v>
       </c>
       <c r="T3">
-        <v>0.02487526632665743</v>
+        <v>0.01682075988233641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>92.4220911076807</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H4">
-        <v>92.4220911076807</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I4">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J4">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.13878289048683</v>
+        <v>0.5479136666666666</v>
       </c>
       <c r="N4">
-        <v>1.13878289048683</v>
+        <v>1.643741</v>
       </c>
       <c r="O4">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289424</v>
       </c>
       <c r="P4">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289423</v>
       </c>
       <c r="Q4">
-        <v>105.2486960564418</v>
+        <v>12.55607980845045</v>
       </c>
       <c r="R4">
-        <v>105.2486960564418</v>
+        <v>113.004718276054</v>
       </c>
       <c r="S4">
-        <v>0.08691858251896178</v>
+        <v>0.007974955882217648</v>
       </c>
       <c r="T4">
-        <v>0.08691858251896178</v>
+        <v>0.007974955882217648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>92.4220911076807</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H5">
-        <v>92.4220911076807</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I5">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J5">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.96705803484053</v>
+        <v>2.065262333333334</v>
       </c>
       <c r="N5">
-        <v>1.96705803484053</v>
+        <v>6.195787</v>
       </c>
       <c r="O5">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476912</v>
       </c>
       <c r="P5">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476911</v>
       </c>
       <c r="Q5">
-        <v>181.7996169101268</v>
+        <v>47.3278917105309</v>
       </c>
       <c r="R5">
-        <v>181.7996169101268</v>
+        <v>425.9510253947781</v>
       </c>
       <c r="S5">
-        <v>0.1501373945368832</v>
+        <v>0.03006016640128684</v>
       </c>
       <c r="T5">
-        <v>0.1501373945368832</v>
+        <v>0.03006016640128685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H6">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I6">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J6">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.13878289048683</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N6">
-        <v>1.13878289048683</v>
+        <v>0.153373</v>
       </c>
       <c r="O6">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="P6">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="Q6">
-        <v>85.97994244327423</v>
+        <v>4.772349308939666</v>
       </c>
       <c r="R6">
-        <v>85.97994244327423</v>
+        <v>42.951143780457</v>
       </c>
       <c r="S6">
-        <v>0.07100567515082211</v>
+        <v>0.003031143141325942</v>
       </c>
       <c r="T6">
-        <v>0.07100567515082211</v>
+        <v>0.003031143141325943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H7">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I7">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J7">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.96705803484053</v>
+        <v>1.155658333333333</v>
       </c>
       <c r="N7">
-        <v>1.96705803484053</v>
+        <v>3.466975</v>
       </c>
       <c r="O7">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="P7">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="Q7">
-        <v>148.5160499257825</v>
+        <v>107.8782820011416</v>
       </c>
       <c r="R7">
-        <v>148.5160499257825</v>
+        <v>970.9045380102748</v>
       </c>
       <c r="S7">
-        <v>0.1226504937784859</v>
+        <v>0.0685185625396811</v>
       </c>
       <c r="T7">
-        <v>0.1226504937784859</v>
+        <v>0.0685185625396811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.9438020134762</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H8">
-        <v>80.9438020134762</v>
+        <v>280.043709</v>
       </c>
       <c r="I8">
-        <v>0.2076149959706424</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J8">
-        <v>0.2076149959706424</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.13878289048683</v>
+        <v>0.5479136666666666</v>
       </c>
       <c r="N8">
-        <v>1.13878289048683</v>
+        <v>1.643741</v>
       </c>
       <c r="O8">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289424</v>
       </c>
       <c r="P8">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289423</v>
       </c>
       <c r="Q8">
-        <v>92.17741682390012</v>
+        <v>51.14659180837432</v>
       </c>
       <c r="R8">
-        <v>92.17741682390012</v>
+        <v>460.319326275369</v>
       </c>
       <c r="S8">
-        <v>0.07612379735608635</v>
+        <v>0.03248560214813719</v>
       </c>
       <c r="T8">
-        <v>0.07612379735608635</v>
+        <v>0.03248560214813719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.9438020134762</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H9">
-        <v>80.9438020134762</v>
+        <v>280.043709</v>
       </c>
       <c r="I9">
-        <v>0.2076149959706424</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J9">
-        <v>0.2076149959706424</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.96705803484053</v>
+        <v>2.065262333333334</v>
       </c>
       <c r="N9">
-        <v>1.96705803484053</v>
+        <v>6.195787</v>
       </c>
       <c r="O9">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476912</v>
       </c>
       <c r="P9">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476911</v>
       </c>
       <c r="Q9">
-        <v>159.2211561211494</v>
+        <v>192.7879079615537</v>
       </c>
       <c r="R9">
-        <v>159.2211561211494</v>
+        <v>1735.091171653983</v>
       </c>
       <c r="S9">
-        <v>0.131491198614556</v>
+        <v>0.122448653088656</v>
       </c>
       <c r="T9">
-        <v>0.131491198614556</v>
+        <v>0.122448653088656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.1826616038246</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H10">
-        <v>56.1826616038246</v>
+        <v>240.687676</v>
       </c>
       <c r="I10">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J10">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.13878289048683</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N10">
-        <v>1.13878289048683</v>
+        <v>0.153373</v>
       </c>
       <c r="O10">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="P10">
-        <v>0.3666584728149915</v>
+        <v>0.01338347814583683</v>
       </c>
       <c r="Q10">
-        <v>63.97985377644682</v>
+        <v>4.101665659016445</v>
       </c>
       <c r="R10">
-        <v>63.97985377644682</v>
+        <v>36.914990931148</v>
       </c>
       <c r="S10">
-        <v>0.05283712205837667</v>
+        <v>0.002605160461965888</v>
       </c>
       <c r="T10">
-        <v>0.05283712205837667</v>
+        <v>0.002605160461965888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.1826616038246</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H11">
-        <v>56.1826616038246</v>
+        <v>240.687676</v>
       </c>
       <c r="I11">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J11">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.96705803484053</v>
+        <v>1.155658333333333</v>
       </c>
       <c r="N11">
-        <v>1.96705803484053</v>
+        <v>3.466975</v>
       </c>
       <c r="O11">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="P11">
-        <v>0.6333415271850084</v>
+        <v>0.3025316329775296</v>
       </c>
       <c r="Q11">
-        <v>110.5145559265297</v>
+        <v>92.71757283334443</v>
       </c>
       <c r="R11">
-        <v>110.5145559265297</v>
+        <v>834.4581555000999</v>
       </c>
       <c r="S11">
-        <v>0.09126734020244011</v>
+        <v>0.05888928424575501</v>
       </c>
       <c r="T11">
-        <v>0.09126734020244011</v>
+        <v>0.05888928424575501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.5115776631078</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H12">
-        <v>69.5115776631078</v>
+        <v>240.687676</v>
       </c>
       <c r="I12">
-        <v>0.1782921676206465</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J12">
-        <v>0.1782921676206465</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.13878289048683</v>
+        <v>0.5479136666666666</v>
       </c>
       <c r="N12">
-        <v>1.13878289048683</v>
+        <v>1.643741</v>
       </c>
       <c r="O12">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289424</v>
       </c>
       <c r="P12">
-        <v>0.3666584728149915</v>
+        <v>0.1434344490289423</v>
       </c>
       <c r="Q12">
-        <v>79.15859533349366</v>
+        <v>43.95868902621289</v>
       </c>
       <c r="R12">
-        <v>79.15859533349366</v>
+        <v>395.6282012359159</v>
       </c>
       <c r="S12">
-        <v>0.06537233389466073</v>
+        <v>0.02792022756881766</v>
       </c>
       <c r="T12">
-        <v>0.06537233389466073</v>
+        <v>0.02792022756881765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,796 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.5115776631078</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H13">
-        <v>69.5115776631078</v>
+        <v>240.687676</v>
       </c>
       <c r="I13">
-        <v>0.1782921676206465</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J13">
-        <v>0.1782921676206465</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.96705803484053</v>
+        <v>2.065262333333334</v>
       </c>
       <c r="N13">
-        <v>1.96705803484053</v>
+        <v>6.195787</v>
       </c>
       <c r="O13">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476912</v>
       </c>
       <c r="P13">
-        <v>0.6333415271850084</v>
+        <v>0.5406504398476911</v>
       </c>
       <c r="Q13">
-        <v>136.7333073566577</v>
+        <v>165.6943971134458</v>
       </c>
       <c r="R13">
-        <v>136.7333073566577</v>
+        <v>1491.249574021012</v>
       </c>
       <c r="S13">
-        <v>0.1129198337259857</v>
+        <v>0.1052402921189665</v>
       </c>
       <c r="T13">
-        <v>0.1129198337259857</v>
+        <v>0.1052402921189664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>80.97090133333333</v>
+      </c>
+      <c r="H14">
+        <v>242.912704</v>
+      </c>
+      <c r="I14">
+        <v>0.1964544447565975</v>
+      </c>
+      <c r="J14">
+        <v>0.1964544447565976</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.153373</v>
+      </c>
+      <c r="O14">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="P14">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="Q14">
+        <v>4.139583350065777</v>
+      </c>
+      <c r="R14">
+        <v>37.256250150592</v>
+      </c>
+      <c r="S14">
+        <v>0.002629243768052432</v>
+      </c>
+      <c r="T14">
+        <v>0.002629243768052433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>80.97090133333333</v>
+      </c>
+      <c r="H15">
+        <v>242.912704</v>
+      </c>
+      <c r="I15">
+        <v>0.1964544447565975</v>
+      </c>
+      <c r="J15">
+        <v>0.1964544447565976</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.155658333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.466975</v>
+      </c>
+      <c r="O15">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="P15">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="Q15">
+        <v>93.57469688337777</v>
+      </c>
+      <c r="R15">
+        <v>842.1722719503999</v>
+      </c>
+      <c r="S15">
+        <v>0.05943368397790733</v>
+      </c>
+      <c r="T15">
+        <v>0.05943368397790733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>80.97090133333333</v>
+      </c>
+      <c r="H16">
+        <v>242.912704</v>
+      </c>
+      <c r="I16">
+        <v>0.1964544447565975</v>
+      </c>
+      <c r="J16">
+        <v>0.1964544447565976</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.5479136666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.643741</v>
+      </c>
+      <c r="O16">
+        <v>0.1434344490289424</v>
+      </c>
+      <c r="P16">
+        <v>0.1434344490289423</v>
+      </c>
+      <c r="Q16">
+        <v>44.36506344285155</v>
+      </c>
+      <c r="R16">
+        <v>399.285570985664</v>
+      </c>
+      <c r="S16">
+        <v>0.02817833504294937</v>
+      </c>
+      <c r="T16">
+        <v>0.02817833504294936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>80.97090133333333</v>
+      </c>
+      <c r="H17">
+        <v>242.912704</v>
+      </c>
+      <c r="I17">
+        <v>0.1964544447565975</v>
+      </c>
+      <c r="J17">
+        <v>0.1964544447565976</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.065262333333334</v>
+      </c>
+      <c r="N17">
+        <v>6.195787</v>
+      </c>
+      <c r="O17">
+        <v>0.5406504398476912</v>
+      </c>
+      <c r="P17">
+        <v>0.5406504398476911</v>
+      </c>
+      <c r="Q17">
+        <v>167.2261526197831</v>
+      </c>
+      <c r="R17">
+        <v>1505.035373578048</v>
+      </c>
+      <c r="S17">
+        <v>0.1062131819676884</v>
+      </c>
+      <c r="T17">
+        <v>0.1062131819676884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>56.835931</v>
+      </c>
+      <c r="H18">
+        <v>170.507793</v>
+      </c>
+      <c r="I18">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J18">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.153373</v>
+      </c>
+      <c r="O18">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="P18">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="Q18">
+        <v>2.905699081754333</v>
+      </c>
+      <c r="R18">
+        <v>26.151291735789</v>
+      </c>
+      <c r="S18">
+        <v>0.00184554592974118</v>
+      </c>
+      <c r="T18">
+        <v>0.001845545929741181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>56.835931</v>
+      </c>
+      <c r="H19">
+        <v>170.507793</v>
+      </c>
+      <c r="I19">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J19">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.155658333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.466975</v>
+      </c>
+      <c r="O19">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="P19">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="Q19">
+        <v>65.68291729290833</v>
+      </c>
+      <c r="R19">
+        <v>591.1462556361749</v>
+      </c>
+      <c r="S19">
+        <v>0.04171830504563664</v>
+      </c>
+      <c r="T19">
+        <v>0.04171830504563664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>56.835931</v>
+      </c>
+      <c r="H20">
+        <v>170.507793</v>
+      </c>
+      <c r="I20">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J20">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.5479136666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.643741</v>
+      </c>
+      <c r="O20">
+        <v>0.1434344490289424</v>
+      </c>
+      <c r="P20">
+        <v>0.1434344490289423</v>
+      </c>
+      <c r="Q20">
+        <v>31.14118335262366</v>
+      </c>
+      <c r="R20">
+        <v>280.270650173613</v>
+      </c>
+      <c r="S20">
+        <v>0.01977922784387537</v>
+      </c>
+      <c r="T20">
+        <v>0.01977922784387537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>56.835931</v>
+      </c>
+      <c r="H21">
+        <v>170.507793</v>
+      </c>
+      <c r="I21">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J21">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.065262333333334</v>
+      </c>
+      <c r="N21">
+        <v>6.195787</v>
+      </c>
+      <c r="O21">
+        <v>0.5406504398476912</v>
+      </c>
+      <c r="P21">
+        <v>0.5406504398476911</v>
+      </c>
+      <c r="Q21">
+        <v>117.3811074742323</v>
+      </c>
+      <c r="R21">
+        <v>1056.429967268091</v>
+      </c>
+      <c r="S21">
+        <v>0.07455425322184034</v>
+      </c>
+      <c r="T21">
+        <v>0.07455425322184034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H22">
+        <v>233.583249</v>
+      </c>
+      <c r="I22">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J22">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.153373</v>
+      </c>
+      <c r="O22">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="P22">
+        <v>0.01338347814583683</v>
+      </c>
+      <c r="Q22">
+        <v>3.980595960986333</v>
+      </c>
+      <c r="R22">
+        <v>35.825363648877</v>
+      </c>
+      <c r="S22">
+        <v>0.002528263411676853</v>
+      </c>
+      <c r="T22">
+        <v>0.002528263411676854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H23">
+        <v>233.583249</v>
+      </c>
+      <c r="I23">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J23">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.155658333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.466975</v>
+      </c>
+      <c r="O23">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="P23">
+        <v>0.3025316329775296</v>
+      </c>
+      <c r="Q23">
+        <v>89.98080941130831</v>
+      </c>
+      <c r="R23">
+        <v>809.8272847017749</v>
+      </c>
+      <c r="S23">
+        <v>0.05715103728621307</v>
+      </c>
+      <c r="T23">
+        <v>0.05715103728621308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H24">
+        <v>233.583249</v>
+      </c>
+      <c r="I24">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J24">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.5479136666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.643741</v>
+      </c>
+      <c r="O24">
+        <v>0.1434344490289424</v>
+      </c>
+      <c r="P24">
+        <v>0.1434344490289423</v>
+      </c>
+      <c r="Q24">
+        <v>42.66115147716766</v>
+      </c>
+      <c r="R24">
+        <v>383.950363294509</v>
+      </c>
+      <c r="S24">
+        <v>0.02709610054294512</v>
+      </c>
+      <c r="T24">
+        <v>0.02709610054294512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H25">
+        <v>233.583249</v>
+      </c>
+      <c r="I25">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J25">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.065262333333334</v>
+      </c>
+      <c r="N25">
+        <v>6.195787</v>
+      </c>
+      <c r="O25">
+        <v>0.5406504398476912</v>
+      </c>
+      <c r="P25">
+        <v>0.5406504398476911</v>
+      </c>
+      <c r="Q25">
+        <v>160.8035619524403</v>
+      </c>
+      <c r="R25">
+        <v>1447.232057571963</v>
+      </c>
+      <c r="S25">
+        <v>0.1021338930492531</v>
+      </c>
+      <c r="T25">
+        <v>0.1021338930492531</v>
       </c>
     </row>
   </sheetData>
